--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/ProprietaryDataFiles/Syndication_InvalidFile9.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/ProprietaryDataFiles/Syndication_InvalidFile9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sroibu\Source\Repos\Broadcast\Source\Tam\MaestroTests\SupportTests\Services.Broadcast.IntegrationTests\Files\ProprietaryDataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{ED856153-2A36-4BD0-A4B9-0853B1CF069F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7C43CE92-F9FE-441C-A103-9A2F32D1BA16}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,9 +85,6 @@
     <t>Avg HH CPM</t>
   </si>
   <si>
-    <t>P 25-54 Avg Rtg</t>
-  </si>
-  <si>
     <t>P 25-54 VPVH</t>
   </si>
   <si>
@@ -116,6 +113,9 @@
   </si>
   <si>
     <t>fjk</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Avg P 25-54Rtg</t>
   </si>
 </sst>
 </file>
@@ -624,22 +624,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -653,6 +641,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1048,7 +1048,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="15" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="24" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1098,18 +1098,18 @@
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="47" t="str">
+      <c r="D2" s="42"/>
+      <c r="E2" s="43" t="str">
         <f>IF(COUNTA($E$3:$E10) &gt; 0, "Errors", "")</f>
         <v/>
       </c>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -1129,17 +1129,17 @@
         <v>3</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -1159,15 +1159,15 @@
         <v>5</v>
       </c>
       <c r="B4" s="10"/>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -1187,15 +1187,15 @@
         <v>7</v>
       </c>
       <c r="B5" s="10"/>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -1217,15 +1217,15 @@
       <c r="B6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -1245,15 +1245,15 @@
         <v>10</v>
       </c>
       <c r="B7" s="12"/>
-      <c r="C7" s="41">
+      <c r="C7" s="39">
         <v>25.123000000000001</v>
       </c>
-      <c r="D7" s="42"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -1275,15 +1275,15 @@
       <c r="B8" s="13">
         <v>43757</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -1305,15 +1305,15 @@
       <c r="B9" s="13">
         <v>43788</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="42"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
@@ -1333,15 +1333,15 @@
         <v>14</v>
       </c>
       <c r="B10" s="15"/>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="44"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -1472,14 +1472,14 @@
         <v>20</v>
       </c>
       <c r="F15" s="35" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G15" s="35"/>
       <c r="H15" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I15" s="36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J15" s="22"/>
       <c r="K15" s="23"/>
@@ -1497,7 +1497,7 @@
     </row>
     <row r="16" spans="1:22" s="28" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="37">
         <v>1</v>
@@ -1537,10 +1537,10 @@
     </row>
     <row r="17" spans="1:22" s="28" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="38">
         <v>1.1000000000000001</v>
@@ -1579,7 +1579,7 @@
     </row>
     <row r="18" spans="1:22" s="28" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="37">
         <v>1</v>
@@ -1619,7 +1619,7 @@
     </row>
     <row r="19" spans="1:22" s="28" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="37">
         <v>1</v>
@@ -1659,7 +1659,7 @@
     </row>
     <row r="20" spans="1:22" s="28" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="37">
         <v>1</v>
@@ -1681,7 +1681,7 @@
         <v>396</v>
       </c>
       <c r="I20" s="37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J20" s="26"/>
       <c r="K20" s="26"/>
@@ -28411,6 +28411,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C2:D2"/>
@@ -28419,16 +28429,6 @@
     <mergeCell ref="E3:I3"/>
     <mergeCell ref="E4:I4"/>
     <mergeCell ref="E5:I5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="E10:I10"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:E1048576 J1:V1048576 F1:I1 F11:I1048576">
     <cfRule type="expression" dxfId="8" priority="6">
